--- a/Results/TM-TestResults/ComputeTime TM Algorithms 40000 columns/TopologyComputeSpeed SP with TM.xlsx
+++ b/Results/TM-TestResults/ComputeTime TM Algorithms 40000 columns/TopologyComputeSpeed SP with TM.xlsx
@@ -8,34 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\neocortexapi\neocortexapi\Results\TM-TestResults\ComputeTime TM Algorithms 40000 columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549941A2-186B-45C9-9C20-96846B0053A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C27F8-8ED0-464C-B62F-6715AC3C5FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-10128" windowWidth="30936" windowHeight="16896" xr2:uid="{697608A7-46EB-44DA-9169-295BAC6E2D80}"/>
+    <workbookView xWindow="-30828" yWindow="-10128" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{697608A7-46EB-44DA-9169-295BAC6E2D80}"/>
   </bookViews>
   <sheets>
     <sheet name="Topology Performance" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithm Performance" sheetId="2" r:id="rId2"/>
+    <sheet name="Topology Perfoemance 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Algorithm Performance" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Topology Performance'!$C$2:$C$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Topology Performance'!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Topology Performance'!$B$2:$B$137</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Topology Performance'!$C$2:$C$137</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Topology Performance'!$D$2:$D$137</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Topology Performance'!$E$2:$E$137</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Topology Performance'!$A$2:$A$115</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Topology Performance'!$B$2:$B$115</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Topology Performance'!$C$2:$C$115</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Algorithm Performance'!$A$2:$A$2516</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Algorithm Performance'!$B$2:$B$2516</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Topology Performance'!$A$2:$A$172</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Topology Performance'!$B$2:$B$172</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Topology Performance'!$C$2:$C$172</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Topology Performance'!$D$2:$D$172</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Topology Performance'!$E$2:$E$172</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Topology Performance'!$C$2:$C$20</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Topology Performance'!$D$2:$D$20</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Topology Performance'!$A$2:$A$137</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Topology Performance'!$A$2:$A$172</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Topology Performance'!$B$2:$B$172</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Topology Performance'!$C$2:$C$137</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Topology Performance'!$D$2:$D$137</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Topology Performance'!$E$2:$E$137</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Topology Perfoemance 2'!$A$1:$A$1185</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Topology Perfoemance 2'!$B$1:$B$1185</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Topology Perfoemance 2'!$C$1:$C$1185</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Topology Perfoemance 2'!$D$1:$D$1185</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Topology Perfoemance 2'!$E$1:$E$1185</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Topology Perfoemance 2'!$F$1:$F$1185</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Topology Perfoemance 2'!$G$1:$G$1185</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Topology Performance'!$C$2:$C$172</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Topology Perfoemance 2'!$A$1:$A$1185</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Topology Perfoemance 2'!$B$1:$B$1185</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Topology Perfoemance 2'!$C$1:$C$1185</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Topology Perfoemance 2'!$D$1:$D$1185</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Topology Perfoemance 2'!$E$1:$E$1185</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Topology Perfoemance 2'!$F$1:$F$1185</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Topology Perfoemance 2'!$G$1:$G$1185</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Topology Perfoemance 2'!$A$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Topology Perfoemance 2'!$A$2:$A$1185</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Topology Perfoemance 2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Topology Performance'!$D$2:$D$172</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Topology Perfoemance 2'!$B$2:$B$1185</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Topology Perfoemance 2'!$B:$B</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Topology Perfoemance 2'!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Topology Perfoemance 2'!$C$2:$C$1185</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Topology Perfoemance 2'!$D$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Topology Perfoemance 2'!$D$2:$D$1185</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Topology Perfoemance 2'!$E$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Topology Perfoemance 2'!$E$2:$E$1185</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Topology Perfoemance 2'!$F$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Topology Perfoemance 2'!$F:$F</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Topology Performance'!$E$2:$E$172</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Topology Perfoemance 2'!$G$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Topology Perfoemance 2'!$G:$G</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">('Topology Perfoemance 2'!$A:$A,'Topology Perfoemance 2'!$A$1)</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Algorithm Performance'!$A$2:$A$2516</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Algorithm Performance'!$B$2:$B$2516</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Topology Performance'!$A$2:$A$115</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Topology Performance'!$B$2:$B$115</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Topology Performance'!$C$2:$C$115</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Topology Performance'!$A$2:$A$137</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Topology Performance'!$B$2:$B$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>region0.AddLayer(layer1);</t>
   </si>
@@ -87,14 +115,45 @@
   <si>
     <t xml:space="preserve">Column Bursting </t>
   </si>
+  <si>
+    <t>2048cols/10cells</t>
+  </si>
+  <si>
+    <t>4096cols/10cells</t>
+  </si>
+  <si>
+    <t>8612cols/10cells</t>
+  </si>
+  <si>
+    <t>16384cols/10cells</t>
+  </si>
+  <si>
+    <t>40000cols/10cells</t>
+  </si>
+  <si>
+    <t>80000cols/10cells</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,9 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,27 +215,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -235,17 +298,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -294,27 +357,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -377,12 +440,155 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>tm.compute()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t> time as a function of a number of mini-columns</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{02813925-9D94-484E-B68C-3ACEF58A45BF}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D3804A09-826A-4184-BE1C-20B5A7CD7D24}">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2E87DB2D-B7E2-4365-87AD-B1C6C11EB7DC}">
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{254B97FD-DF14-4C01-84D8-247E8AEC6080}">
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D7F628AC-BB46-4FD1-B446-B8B43A534265}">
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{674C6F20-0E8F-445C-A280-0B96C290721E}">
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7C36061D-A922-4FF5-91FE-A2FF430CB386}">
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -567,6 +773,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2666,6 +2912,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2906,6 +3667,89 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB91A555-D09E-4478-BAD0-015B75691A30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10233660" y="2644140"/>
+              <a:ext cx="5280660" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3287,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C9A3CB-DD07-4A2C-A8A7-54E5D1530F4D}">
   <dimension ref="A1:Q3475"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -25796,6 +26640,8598 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5324C0A-4B86-4581-AFE7-D2D4261A0B0A}">
+  <dimension ref="A1:G1185"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2">
+        <v>262</v>
+      </c>
+      <c r="D2" s="2">
+        <v>666</v>
+      </c>
+      <c r="E2">
+        <v>1745</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3109</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2">
+        <v>299</v>
+      </c>
+      <c r="D3" s="2">
+        <v>745</v>
+      </c>
+      <c r="E3">
+        <v>1952</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4320</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2">
+        <v>211</v>
+      </c>
+      <c r="C4" s="2">
+        <v>320</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1273</v>
+      </c>
+      <c r="E4">
+        <v>3313</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8617</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2">
+        <v>181</v>
+      </c>
+      <c r="C5" s="2">
+        <v>291</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1213</v>
+      </c>
+      <c r="E5">
+        <v>3517</v>
+      </c>
+      <c r="F5" s="2">
+        <v>11153</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2">
+        <v>361</v>
+      </c>
+      <c r="D6" s="2">
+        <v>794</v>
+      </c>
+      <c r="E6">
+        <v>2305</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5787</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2">
+        <v>559</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1094</v>
+      </c>
+      <c r="E7">
+        <v>3083</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10071</v>
+      </c>
+      <c r="G7" s="2">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2">
+        <v>170</v>
+      </c>
+      <c r="C8" s="2">
+        <v>507</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1030</v>
+      </c>
+      <c r="E8">
+        <v>2887</v>
+      </c>
+      <c r="F8" s="2">
+        <v>11122</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2">
+        <v>504</v>
+      </c>
+      <c r="D9" s="2">
+        <v>992</v>
+      </c>
+      <c r="E9">
+        <v>2732</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8847</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2">
+        <v>411</v>
+      </c>
+      <c r="D10" s="2">
+        <v>894</v>
+      </c>
+      <c r="E10">
+        <v>2421</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6898</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>115</v>
+      </c>
+      <c r="B11" s="2">
+        <v>210</v>
+      </c>
+      <c r="C11" s="2">
+        <v>608</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1233</v>
+      </c>
+      <c r="E11">
+        <v>3833</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15400</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>143</v>
+      </c>
+      <c r="B12" s="2">
+        <v>200</v>
+      </c>
+      <c r="C12" s="2">
+        <v>639</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1342</v>
+      </c>
+      <c r="E12">
+        <v>4565</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15826</v>
+      </c>
+      <c r="G12" s="2">
+        <v>21332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>123</v>
+      </c>
+      <c r="B13" s="2">
+        <v>164</v>
+      </c>
+      <c r="C13" s="2">
+        <v>479</v>
+      </c>
+      <c r="D13" s="2">
+        <v>988</v>
+      </c>
+      <c r="E13">
+        <v>3958</v>
+      </c>
+      <c r="F13" s="2">
+        <v>13542</v>
+      </c>
+      <c r="G13" s="2">
+        <v>17764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>94</v>
+      </c>
+      <c r="B14" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2">
+        <v>371</v>
+      </c>
+      <c r="D14" s="2">
+        <v>780</v>
+      </c>
+      <c r="E14">
+        <v>2492</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6195</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2">
+        <v>452</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>3670</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12435</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2">
+        <v>167</v>
+      </c>
+      <c r="C16" s="2">
+        <v>404</v>
+      </c>
+      <c r="D16" s="2">
+        <v>782</v>
+      </c>
+      <c r="E16">
+        <v>2096</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4865</v>
+      </c>
+      <c r="G16" s="2">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2">
+        <v>151</v>
+      </c>
+      <c r="C17" s="2">
+        <v>394</v>
+      </c>
+      <c r="D17" s="2">
+        <v>791</v>
+      </c>
+      <c r="E17">
+        <v>1970</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4446</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>131</v>
+      </c>
+      <c r="B18" s="2">
+        <v>261</v>
+      </c>
+      <c r="C18" s="2">
+        <v>622</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1328</v>
+      </c>
+      <c r="E18">
+        <v>3390</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9064</v>
+      </c>
+      <c r="G18" s="2">
+        <v>13516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>137</v>
+      </c>
+      <c r="B19" s="2">
+        <v>261</v>
+      </c>
+      <c r="C19" s="2">
+        <v>596</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1439</v>
+      </c>
+      <c r="E19">
+        <v>3715</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>118</v>
+      </c>
+      <c r="B20" s="2">
+        <v>223</v>
+      </c>
+      <c r="C20" s="2">
+        <v>545</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1408</v>
+      </c>
+      <c r="E20">
+        <v>3947</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2">
+        <v>183</v>
+      </c>
+      <c r="C21" s="2">
+        <v>403</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1144</v>
+      </c>
+      <c r="E21">
+        <v>2480</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>147</v>
+      </c>
+      <c r="B22" s="2">
+        <v>311</v>
+      </c>
+      <c r="C22" s="2">
+        <v>741</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1909</v>
+      </c>
+      <c r="E22">
+        <v>4637</v>
+      </c>
+      <c r="G22" s="2">
+        <v>16894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>166</v>
+      </c>
+      <c r="B23" s="2">
+        <v>323</v>
+      </c>
+      <c r="C23" s="2">
+        <v>747</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1740</v>
+      </c>
+      <c r="E23">
+        <v>5046</v>
+      </c>
+      <c r="G23" s="2">
+        <v>21127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2">
+        <v>174</v>
+      </c>
+      <c r="C24" s="2">
+        <v>401</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1218</v>
+      </c>
+      <c r="E24">
+        <v>2743</v>
+      </c>
+      <c r="G24" s="2">
+        <v>14097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>139</v>
+      </c>
+      <c r="B25" s="2">
+        <v>248</v>
+      </c>
+      <c r="C25" s="2">
+        <v>865</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1538</v>
+      </c>
+      <c r="E25">
+        <v>5004</v>
+      </c>
+      <c r="G25" s="2">
+        <v>24724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2">
+        <v>193</v>
+      </c>
+      <c r="C26" s="2">
+        <v>638</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1075</v>
+      </c>
+      <c r="E26">
+        <v>3438</v>
+      </c>
+      <c r="G26" s="2">
+        <v>12408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2">
+        <v>216</v>
+      </c>
+      <c r="C27" s="2">
+        <v>789</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1390</v>
+      </c>
+      <c r="E27">
+        <v>4796</v>
+      </c>
+      <c r="G27" s="2">
+        <v>27628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2">
+        <v>159</v>
+      </c>
+      <c r="C28" s="2">
+        <v>524</v>
+      </c>
+      <c r="D28" s="2">
+        <v>883</v>
+      </c>
+      <c r="E28">
+        <v>2653</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2">
+        <v>316</v>
+      </c>
+      <c r="C29" s="2">
+        <v>977</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1694</v>
+      </c>
+      <c r="E29">
+        <v>5362</v>
+      </c>
+      <c r="G29" s="2">
+        <v>23936</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2">
+        <v>335</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E30">
+        <v>5833</v>
+      </c>
+      <c r="G30" s="2">
+        <v>24076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2">
+        <v>332</v>
+      </c>
+      <c r="C31" s="2">
+        <v>943</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1816</v>
+      </c>
+      <c r="E31">
+        <v>5475</v>
+      </c>
+      <c r="G31" s="2">
+        <v>21823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>133</v>
+      </c>
+      <c r="B32" s="2">
+        <v>304</v>
+      </c>
+      <c r="C32" s="2">
+        <v>800</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1771</v>
+      </c>
+      <c r="E32">
+        <v>5310</v>
+      </c>
+      <c r="G32" s="2">
+        <v>25016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2">
+        <v>309</v>
+      </c>
+      <c r="C33" s="2">
+        <v>880</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1950</v>
+      </c>
+      <c r="E33">
+        <v>5362</v>
+      </c>
+      <c r="G33" s="2">
+        <v>24454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>89</v>
+      </c>
+      <c r="B34" s="2">
+        <v>176</v>
+      </c>
+      <c r="C34" s="2">
+        <v>477</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1157</v>
+      </c>
+      <c r="E34">
+        <v>3181</v>
+      </c>
+      <c r="G34" s="2">
+        <v>14982</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>162</v>
+      </c>
+      <c r="B35" s="2">
+        <v>322</v>
+      </c>
+      <c r="C35" s="2">
+        <v>852</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1892</v>
+      </c>
+      <c r="E35">
+        <v>5297</v>
+      </c>
+      <c r="G35" s="2">
+        <v>23263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>149</v>
+      </c>
+      <c r="B36" s="2">
+        <v>294</v>
+      </c>
+      <c r="C36" s="2">
+        <v>873</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E36">
+        <v>5593</v>
+      </c>
+      <c r="G36" s="2">
+        <v>30963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>130</v>
+      </c>
+      <c r="B37" s="2">
+        <v>296</v>
+      </c>
+      <c r="C37" s="2">
+        <v>716</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1719</v>
+      </c>
+      <c r="E37">
+        <v>4845</v>
+      </c>
+      <c r="G37" s="2">
+        <v>22557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>144</v>
+      </c>
+      <c r="B38" s="2">
+        <v>303</v>
+      </c>
+      <c r="C38" s="2">
+        <v>993</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1941</v>
+      </c>
+      <c r="E38">
+        <v>5367</v>
+      </c>
+      <c r="G38" s="2">
+        <v>23014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>131</v>
+      </c>
+      <c r="B39" s="2">
+        <v>275</v>
+      </c>
+      <c r="C39" s="2">
+        <v>916</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1906</v>
+      </c>
+      <c r="E39">
+        <v>4658</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>109</v>
+      </c>
+      <c r="B40" s="2">
+        <v>226</v>
+      </c>
+      <c r="C40" s="2">
+        <v>770</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1729</v>
+      </c>
+      <c r="E40">
+        <v>5096</v>
+      </c>
+      <c r="G40" s="2">
+        <v>27373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>151</v>
+      </c>
+      <c r="B41" s="2">
+        <v>320</v>
+      </c>
+      <c r="C41" s="2">
+        <v>948</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2138</v>
+      </c>
+      <c r="E41">
+        <v>6919</v>
+      </c>
+      <c r="G41" s="2">
+        <v>33817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>134</v>
+      </c>
+      <c r="B42" s="2">
+        <v>292</v>
+      </c>
+      <c r="C42" s="2">
+        <v>814</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1977</v>
+      </c>
+      <c r="E42">
+        <v>6504</v>
+      </c>
+      <c r="G42" s="2">
+        <v>33196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>153</v>
+      </c>
+      <c r="B43" s="2">
+        <v>308</v>
+      </c>
+      <c r="C43" s="2">
+        <v>925</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2204</v>
+      </c>
+      <c r="E43">
+        <v>6376</v>
+      </c>
+      <c r="G43" s="2">
+        <v>31622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>136</v>
+      </c>
+      <c r="B44" s="2">
+        <v>311</v>
+      </c>
+      <c r="C44" s="2">
+        <v>933</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2079</v>
+      </c>
+      <c r="E44">
+        <v>6495</v>
+      </c>
+      <c r="G44" s="2">
+        <v>32145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>99</v>
+      </c>
+      <c r="B45" s="2">
+        <v>199</v>
+      </c>
+      <c r="C45" s="2">
+        <v>469</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1217</v>
+      </c>
+      <c r="E45">
+        <v>3558</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2">
+        <v>211</v>
+      </c>
+      <c r="C46" s="2">
+        <v>544</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1333</v>
+      </c>
+      <c r="E46">
+        <v>4774</v>
+      </c>
+      <c r="G46" s="2">
+        <v>20971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>113</v>
+      </c>
+      <c r="B47" s="2">
+        <v>283</v>
+      </c>
+      <c r="C47" s="2">
+        <v>534</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1508</v>
+      </c>
+      <c r="E47">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>150</v>
+      </c>
+      <c r="B48" s="2">
+        <v>314</v>
+      </c>
+      <c r="C48" s="2">
+        <v>522</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1869</v>
+      </c>
+      <c r="E48">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>134</v>
+      </c>
+      <c r="B49" s="2">
+        <v>265</v>
+      </c>
+      <c r="C49" s="2">
+        <v>658</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1695</v>
+      </c>
+      <c r="E49">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>162</v>
+      </c>
+      <c r="B50" s="2">
+        <v>311</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1932</v>
+      </c>
+      <c r="E50">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>132</v>
+      </c>
+      <c r="B51" s="2">
+        <v>281</v>
+      </c>
+      <c r="C51" s="2">
+        <v>786</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1790</v>
+      </c>
+      <c r="E51">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2">
+        <v>257</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1220</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1849</v>
+      </c>
+      <c r="E52">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>92</v>
+      </c>
+      <c r="B53" s="2">
+        <v>188</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1230</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1236</v>
+      </c>
+      <c r="E53">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>81</v>
+      </c>
+      <c r="B54" s="2">
+        <v>173</v>
+      </c>
+      <c r="C54" s="2">
+        <v>911</v>
+      </c>
+      <c r="D54" s="2">
+        <v>865</v>
+      </c>
+      <c r="E54">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2">
+        <v>172</v>
+      </c>
+      <c r="C55" s="2">
+        <v>919</v>
+      </c>
+      <c r="D55" s="2">
+        <v>893</v>
+      </c>
+      <c r="E55">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>83</v>
+      </c>
+      <c r="B56" s="2">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2">
+        <v>914</v>
+      </c>
+      <c r="D56" s="2">
+        <v>936</v>
+      </c>
+      <c r="E56">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1082</v>
+      </c>
+      <c r="D57" s="2">
+        <v>934</v>
+      </c>
+      <c r="E57">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2">
+        <v>166</v>
+      </c>
+      <c r="C58" s="2">
+        <v>916</v>
+      </c>
+      <c r="D58" s="2">
+        <v>927</v>
+      </c>
+      <c r="E58">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2">
+        <v>813</v>
+      </c>
+      <c r="D59" s="2">
+        <v>884</v>
+      </c>
+      <c r="E59">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>74</v>
+      </c>
+      <c r="B60" s="2">
+        <v>165</v>
+      </c>
+      <c r="C60" s="2">
+        <v>861</v>
+      </c>
+      <c r="D60" s="2">
+        <v>890</v>
+      </c>
+      <c r="E60">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>77</v>
+      </c>
+      <c r="B61" s="2">
+        <v>168</v>
+      </c>
+      <c r="C61" s="2">
+        <v>847</v>
+      </c>
+      <c r="D61" s="2">
+        <v>865</v>
+      </c>
+      <c r="E61">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>77</v>
+      </c>
+      <c r="B62" s="2">
+        <v>166</v>
+      </c>
+      <c r="C62" s="2">
+        <v>844</v>
+      </c>
+      <c r="D62" s="2">
+        <v>872</v>
+      </c>
+      <c r="E62">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2">
+        <v>163</v>
+      </c>
+      <c r="C63" s="2">
+        <v>824</v>
+      </c>
+      <c r="D63" s="2">
+        <v>911</v>
+      </c>
+      <c r="E63">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2">
+        <v>173</v>
+      </c>
+      <c r="C64" s="2">
+        <v>828</v>
+      </c>
+      <c r="D64" s="2">
+        <v>900</v>
+      </c>
+      <c r="E64">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>91</v>
+      </c>
+      <c r="B65" s="2">
+        <v>170</v>
+      </c>
+      <c r="C65" s="2">
+        <v>943</v>
+      </c>
+      <c r="D65" s="2">
+        <v>880</v>
+      </c>
+      <c r="E65">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="2">
+        <v>86</v>
+      </c>
+      <c r="B66" s="2">
+        <v>169</v>
+      </c>
+      <c r="C66" s="2">
+        <v>968</v>
+      </c>
+      <c r="D66" s="2">
+        <v>906</v>
+      </c>
+      <c r="E66">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="2">
+        <v>81</v>
+      </c>
+      <c r="B67" s="2">
+        <v>165</v>
+      </c>
+      <c r="C67" s="2">
+        <v>907</v>
+      </c>
+      <c r="D67" s="2">
+        <v>872</v>
+      </c>
+      <c r="E67">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="2">
+        <v>78</v>
+      </c>
+      <c r="B68" s="2">
+        <v>174</v>
+      </c>
+      <c r="C68" s="2">
+        <v>890</v>
+      </c>
+      <c r="D68" s="2">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="2">
+        <v>80</v>
+      </c>
+      <c r="B69" s="2">
+        <v>163</v>
+      </c>
+      <c r="C69" s="2">
+        <v>880</v>
+      </c>
+      <c r="D69" s="2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="2">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2">
+        <v>174</v>
+      </c>
+      <c r="C70" s="2">
+        <v>851</v>
+      </c>
+      <c r="D70" s="2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="2">
+        <v>83</v>
+      </c>
+      <c r="B71" s="2">
+        <v>167</v>
+      </c>
+      <c r="C71" s="2">
+        <v>986</v>
+      </c>
+      <c r="D71" s="2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="2">
+        <v>77</v>
+      </c>
+      <c r="B72" s="2">
+        <v>164</v>
+      </c>
+      <c r="C72" s="2">
+        <v>982</v>
+      </c>
+      <c r="D72" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="2">
+        <v>81</v>
+      </c>
+      <c r="B73" s="2">
+        <v>170</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D73" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="2">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>176</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1199</v>
+      </c>
+      <c r="D74" s="2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="2">
+        <v>78</v>
+      </c>
+      <c r="B75" s="2">
+        <v>171</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1158</v>
+      </c>
+      <c r="D75" s="2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="2">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
+        <v>173</v>
+      </c>
+      <c r="C76" s="2">
+        <v>906</v>
+      </c>
+      <c r="D76" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
+        <v>177</v>
+      </c>
+      <c r="C77" s="2">
+        <v>923</v>
+      </c>
+      <c r="D77" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="2">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
+        <v>171</v>
+      </c>
+      <c r="C78" s="2">
+        <v>905</v>
+      </c>
+      <c r="D78" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="2">
+        <v>85</v>
+      </c>
+      <c r="B79" s="2">
+        <v>177</v>
+      </c>
+      <c r="C79" s="2">
+        <v>956</v>
+      </c>
+      <c r="D79" s="2">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2">
+        <v>164</v>
+      </c>
+      <c r="C80" s="2">
+        <v>961</v>
+      </c>
+      <c r="D80" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2">
+        <v>85</v>
+      </c>
+      <c r="B81" s="2">
+        <v>167</v>
+      </c>
+      <c r="C81" s="2">
+        <v>947</v>
+      </c>
+      <c r="D81" s="2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>178</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D82" s="2">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="2">
+        <v>78</v>
+      </c>
+      <c r="B83" s="2">
+        <v>163</v>
+      </c>
+      <c r="C83" s="2">
+        <v>963</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>175</v>
+      </c>
+      <c r="C84" s="2">
+        <v>903</v>
+      </c>
+      <c r="D84" s="2">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>178</v>
+      </c>
+      <c r="C85" s="2">
+        <v>925</v>
+      </c>
+      <c r="D85" s="2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="2">
+        <v>77</v>
+      </c>
+      <c r="B86" s="2">
+        <v>169</v>
+      </c>
+      <c r="C86" s="2">
+        <v>875</v>
+      </c>
+      <c r="D86" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="2">
+        <v>81</v>
+      </c>
+      <c r="B87" s="2">
+        <v>172</v>
+      </c>
+      <c r="C87" s="2">
+        <v>846</v>
+      </c>
+      <c r="D87" s="2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="2">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2">
+        <v>176</v>
+      </c>
+      <c r="C88" s="2">
+        <v>883</v>
+      </c>
+      <c r="D88" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="2">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2">
+        <v>179</v>
+      </c>
+      <c r="C89" s="2">
+        <v>865</v>
+      </c>
+      <c r="D89" s="2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="2">
+        <v>83</v>
+      </c>
+      <c r="B90" s="2">
+        <v>167</v>
+      </c>
+      <c r="C90" s="2">
+        <v>907</v>
+      </c>
+      <c r="D90" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="2">
+        <v>82</v>
+      </c>
+      <c r="B91" s="2">
+        <v>174</v>
+      </c>
+      <c r="C91" s="2">
+        <v>861</v>
+      </c>
+      <c r="D91" s="2">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="2">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2">
+        <v>178</v>
+      </c>
+      <c r="C92" s="2">
+        <v>886</v>
+      </c>
+      <c r="D92" s="2">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="2">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2">
+        <v>169</v>
+      </c>
+      <c r="C93" s="2">
+        <v>929</v>
+      </c>
+      <c r="D93" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>175</v>
+      </c>
+      <c r="C94" s="2">
+        <v>963</v>
+      </c>
+      <c r="D94" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="2">
+        <v>80</v>
+      </c>
+      <c r="B95" s="2">
+        <v>165</v>
+      </c>
+      <c r="C95" s="2">
+        <v>958</v>
+      </c>
+      <c r="D95" s="2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2">
+        <v>83</v>
+      </c>
+      <c r="B96" s="2">
+        <v>162</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D96" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="2">
+        <v>82</v>
+      </c>
+      <c r="B97" s="2">
+        <v>170</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1253</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
+        <v>82</v>
+      </c>
+      <c r="B98" s="2">
+        <v>167</v>
+      </c>
+      <c r="C98" s="2">
+        <v>989</v>
+      </c>
+      <c r="D98" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>178</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
+        <v>96</v>
+      </c>
+      <c r="B100" s="2">
+        <v>185</v>
+      </c>
+      <c r="C100" s="2">
+        <v>938</v>
+      </c>
+      <c r="D100" s="2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>168</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1138</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
+        <v>109</v>
+      </c>
+      <c r="B102" s="2">
+        <v>187</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1181</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
+        <v>100</v>
+      </c>
+      <c r="B103" s="2">
+        <v>187</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1466</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
+        <v>80</v>
+      </c>
+      <c r="B104" s="2">
+        <v>190</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1143</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="2">
+        <v>89</v>
+      </c>
+      <c r="B105" s="2">
+        <v>188</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="2">
+        <v>85</v>
+      </c>
+      <c r="B106" s="2">
+        <v>173</v>
+      </c>
+      <c r="C106" s="2">
+        <v>942</v>
+      </c>
+      <c r="D106" s="2">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="2">
+        <v>86</v>
+      </c>
+      <c r="B107" s="2">
+        <v>196</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1065</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="2">
+        <v>97</v>
+      </c>
+      <c r="B108" s="2">
+        <v>227</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1304</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="2">
+        <v>92</v>
+      </c>
+      <c r="B109" s="2">
+        <v>198</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1087</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
+        <v>87</v>
+      </c>
+      <c r="B110" s="2">
+        <v>193</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1032</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
+        <v>98</v>
+      </c>
+      <c r="B111" s="2">
+        <v>196</v>
+      </c>
+      <c r="C111" s="2">
+        <v>952</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
+        <v>86</v>
+      </c>
+      <c r="B112" s="2">
+        <v>198</v>
+      </c>
+      <c r="C112" s="2">
+        <v>858</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="2">
+        <v>103</v>
+      </c>
+      <c r="B113" s="2">
+        <v>200</v>
+      </c>
+      <c r="C113" s="2">
+        <v>944</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="2">
+        <v>105</v>
+      </c>
+      <c r="B114" s="2">
+        <v>231</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
+        <v>108</v>
+      </c>
+      <c r="B115" s="2">
+        <v>207</v>
+      </c>
+      <c r="C115" s="2">
+        <v>550</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="2">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2">
+        <v>158</v>
+      </c>
+      <c r="C116" s="2">
+        <v>448</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" s="2">
+        <v>87</v>
+      </c>
+      <c r="B117" s="2">
+        <v>170</v>
+      </c>
+      <c r="C117" s="2">
+        <v>418</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
+        <v>140</v>
+      </c>
+      <c r="B118" s="2">
+        <v>293</v>
+      </c>
+      <c r="C118" s="2">
+        <v>771</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="2">
+        <v>116</v>
+      </c>
+      <c r="B119" s="2">
+        <v>197</v>
+      </c>
+      <c r="C119" s="2">
+        <v>579</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="2">
+        <v>86</v>
+      </c>
+      <c r="B120" s="2">
+        <v>172</v>
+      </c>
+      <c r="C120" s="2">
+        <v>479</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="2">
+        <v>82</v>
+      </c>
+      <c r="B121" s="2">
+        <v>177</v>
+      </c>
+      <c r="C121" s="2">
+        <v>478</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="2">
+        <v>84</v>
+      </c>
+      <c r="B122" s="2">
+        <v>174</v>
+      </c>
+      <c r="C122" s="2">
+        <v>470</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="2">
+        <v>101</v>
+      </c>
+      <c r="B123" s="2">
+        <v>172</v>
+      </c>
+      <c r="C123" s="2">
+        <v>437</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="2">
+        <v>92</v>
+      </c>
+      <c r="B124" s="2">
+        <v>179</v>
+      </c>
+      <c r="C124" s="2">
+        <v>392</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="2">
+        <v>129</v>
+      </c>
+      <c r="B125" s="2">
+        <v>284</v>
+      </c>
+      <c r="C125" s="2">
+        <v>796</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="2">
+        <v>152</v>
+      </c>
+      <c r="B126" s="2">
+        <v>321</v>
+      </c>
+      <c r="C126" s="2">
+        <v>820</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="2">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2">
+        <v>335</v>
+      </c>
+      <c r="C127" s="2">
+        <v>809</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="2">
+        <v>157</v>
+      </c>
+      <c r="B128" s="2">
+        <v>325</v>
+      </c>
+      <c r="C128" s="2">
+        <v>753</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="2">
+        <v>155</v>
+      </c>
+      <c r="B129" s="2">
+        <v>322</v>
+      </c>
+      <c r="C129" s="2">
+        <v>826</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" s="2">
+        <v>87</v>
+      </c>
+      <c r="B130" s="2">
+        <v>189</v>
+      </c>
+      <c r="C130" s="2">
+        <v>510</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" s="2">
+        <v>135</v>
+      </c>
+      <c r="B131" s="2">
+        <v>247</v>
+      </c>
+      <c r="C131" s="2">
+        <v>650</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" s="2">
+        <v>125</v>
+      </c>
+      <c r="B132" s="2">
+        <v>195</v>
+      </c>
+      <c r="C132" s="2">
+        <v>537</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" s="2">
+        <v>137</v>
+      </c>
+      <c r="B133" s="2">
+        <v>273</v>
+      </c>
+      <c r="C133" s="2">
+        <v>782</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" s="2">
+        <v>105</v>
+      </c>
+      <c r="B134" s="2">
+        <v>258</v>
+      </c>
+      <c r="C134" s="2">
+        <v>729</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" s="2">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2">
+        <v>316</v>
+      </c>
+      <c r="C135" s="2">
+        <v>778</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" s="2">
+        <v>119</v>
+      </c>
+      <c r="B136" s="2">
+        <v>238</v>
+      </c>
+      <c r="C136" s="2">
+        <v>526</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" s="2">
+        <v>116</v>
+      </c>
+      <c r="B137" s="2">
+        <v>300</v>
+      </c>
+      <c r="C137" s="2">
+        <v>514</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" s="2">
+        <v>141</v>
+      </c>
+      <c r="B138" s="2">
+        <v>235</v>
+      </c>
+      <c r="C138" s="2">
+        <v>483</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" s="2">
+        <v>154</v>
+      </c>
+      <c r="B139" s="2">
+        <v>325</v>
+      </c>
+      <c r="C139" s="2">
+        <v>871</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" s="2">
+        <v>169</v>
+      </c>
+      <c r="B140" s="2">
+        <v>338</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" s="2">
+        <v>98</v>
+      </c>
+      <c r="B141" s="2">
+        <v>201</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" s="2">
+        <v>149</v>
+      </c>
+      <c r="B142" s="2">
+        <v>291</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" s="2">
+        <v>131</v>
+      </c>
+      <c r="B143" s="2">
+        <v>292</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" s="2">
+        <v>109</v>
+      </c>
+      <c r="B144" s="2">
+        <v>270</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" s="2">
+        <v>155</v>
+      </c>
+      <c r="B145" s="2">
+        <v>283</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" s="2">
+        <v>158</v>
+      </c>
+      <c r="B146" s="2">
+        <v>352</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" s="2">
+        <v>130</v>
+      </c>
+      <c r="B147" s="2">
+        <v>287</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" s="2">
+        <v>91</v>
+      </c>
+      <c r="B148" s="2">
+        <v>217</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" s="2">
+        <v>136</v>
+      </c>
+      <c r="B149" s="2">
+        <v>332</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" s="2">
+        <v>157</v>
+      </c>
+      <c r="B150" s="2">
+        <v>328</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" s="2">
+        <v>145</v>
+      </c>
+      <c r="B151" s="2">
+        <v>273</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" s="2">
+        <v>154</v>
+      </c>
+      <c r="B152" s="2">
+        <v>334</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" s="2">
+        <v>229</v>
+      </c>
+      <c r="B153" s="2">
+        <v>340</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
+        <v>340</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" s="2">
+        <v>150</v>
+      </c>
+      <c r="B155" s="2">
+        <v>325</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" s="2">
+        <v>153</v>
+      </c>
+      <c r="B156" s="2">
+        <v>358</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" s="2">
+        <v>139</v>
+      </c>
+      <c r="B157" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" s="2">
+        <v>171</v>
+      </c>
+      <c r="B158" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" s="2">
+        <v>122</v>
+      </c>
+      <c r="B159" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" s="2">
+        <v>171</v>
+      </c>
+      <c r="B160" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="2">
+        <v>115</v>
+      </c>
+      <c r="B161" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="2">
+        <v>103</v>
+      </c>
+      <c r="B162" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="2">
+        <v>152</v>
+      </c>
+      <c r="B163" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="2">
+        <v>167</v>
+      </c>
+      <c r="B164" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="2">
+        <v>151</v>
+      </c>
+      <c r="B165" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="2">
+        <v>167</v>
+      </c>
+      <c r="B166" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="2">
+        <v>117</v>
+      </c>
+      <c r="B167" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="2">
+        <v>118</v>
+      </c>
+      <c r="B168" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="2">
+        <v>186</v>
+      </c>
+      <c r="B169" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="2">
+        <v>167</v>
+      </c>
+      <c r="B170" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="2">
+        <v>155</v>
+      </c>
+      <c r="B171" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="2">
+        <v>188</v>
+      </c>
+      <c r="B172" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="2">
+        <v>105</v>
+      </c>
+      <c r="B173" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="2">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="2">
+        <v>166</v>
+      </c>
+      <c r="B175" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="2">
+        <v>161</v>
+      </c>
+      <c r="B176" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="2">
+        <v>152</v>
+      </c>
+      <c r="B177" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="2">
+        <v>147</v>
+      </c>
+      <c r="B178" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="2">
+        <v>134</v>
+      </c>
+      <c r="B179" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="2">
+        <v>171</v>
+      </c>
+      <c r="B180" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="2">
+        <v>159</v>
+      </c>
+      <c r="B181" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="2">
+        <v>117</v>
+      </c>
+      <c r="B182" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="2">
+        <v>111</v>
+      </c>
+      <c r="B183" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="2">
+        <v>141</v>
+      </c>
+      <c r="B184" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="2">
+        <v>106</v>
+      </c>
+      <c r="B185" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="2">
+        <v>120</v>
+      </c>
+      <c r="B186" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="2">
+        <v>96</v>
+      </c>
+      <c r="B187" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="2">
+        <v>89</v>
+      </c>
+      <c r="B188" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="2">
+        <v>89</v>
+      </c>
+      <c r="B189" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="2">
+        <v>75</v>
+      </c>
+      <c r="B190" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="2">
+        <v>111</v>
+      </c>
+      <c r="B191" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="2">
+        <v>104</v>
+      </c>
+      <c r="B192" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="2">
+        <v>126</v>
+      </c>
+      <c r="B193" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="2">
+        <v>90</v>
+      </c>
+      <c r="B194" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="2">
+        <v>104</v>
+      </c>
+      <c r="B195" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="2">
+        <v>104</v>
+      </c>
+      <c r="B196" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="2">
+        <v>90</v>
+      </c>
+      <c r="B197" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="2">
+        <v>90</v>
+      </c>
+      <c r="B198" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="2">
+        <v>84</v>
+      </c>
+      <c r="B199" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="2">
+        <v>93</v>
+      </c>
+      <c r="B200" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="2">
+        <v>93</v>
+      </c>
+      <c r="B201" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="2">
+        <v>106</v>
+      </c>
+      <c r="B202" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="2">
+        <v>122</v>
+      </c>
+      <c r="B203" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="2">
+        <v>104</v>
+      </c>
+      <c r="B204" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="2">
+        <v>94</v>
+      </c>
+      <c r="B205" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="2">
+        <v>87</v>
+      </c>
+      <c r="B206" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="2">
+        <v>90</v>
+      </c>
+      <c r="B207" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="2">
+        <v>89</v>
+      </c>
+      <c r="B208" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="2">
+        <v>108</v>
+      </c>
+      <c r="B209" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="2">
+        <v>112</v>
+      </c>
+      <c r="B210" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="2">
+        <v>89</v>
+      </c>
+      <c r="B211" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="2">
+        <v>107</v>
+      </c>
+      <c r="B212" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="2">
+        <v>114</v>
+      </c>
+      <c r="B213" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="2">
+        <v>95</v>
+      </c>
+      <c r="B214" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" s="2">
+        <v>123</v>
+      </c>
+      <c r="B215" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="2">
+        <v>96</v>
+      </c>
+      <c r="B216" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="2">
+        <v>114</v>
+      </c>
+      <c r="B217" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="2">
+        <v>112</v>
+      </c>
+      <c r="B218" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="2">
+        <v>99</v>
+      </c>
+      <c r="B219" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" s="2">
+        <v>103</v>
+      </c>
+      <c r="B220" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="2">
+        <v>117</v>
+      </c>
+      <c r="B221" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="2">
+        <v>124</v>
+      </c>
+      <c r="B222" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" s="2">
+        <v>118</v>
+      </c>
+      <c r="B223" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" s="2">
+        <v>101</v>
+      </c>
+      <c r="B224" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" s="2">
+        <v>142</v>
+      </c>
+      <c r="B225" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" s="2">
+        <v>159</v>
+      </c>
+      <c r="B226" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" s="2">
+        <v>143</v>
+      </c>
+      <c r="B227" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" s="2">
+        <v>155</v>
+      </c>
+      <c r="B228" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" s="2">
+        <v>163</v>
+      </c>
+      <c r="B229" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" s="2">
+        <v>160</v>
+      </c>
+      <c r="B230" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" s="2">
+        <v>129</v>
+      </c>
+      <c r="B231" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" s="2">
+        <v>120</v>
+      </c>
+      <c r="B232" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" s="2">
+        <v>144</v>
+      </c>
+      <c r="B233" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" s="2">
+        <v>151</v>
+      </c>
+      <c r="B234" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" s="2">
+        <v>170</v>
+      </c>
+      <c r="B235" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" s="2">
+        <v>177</v>
+      </c>
+      <c r="B236" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" s="2">
+        <v>153</v>
+      </c>
+      <c r="B237" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" s="2">
+        <v>152</v>
+      </c>
+      <c r="B238" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" s="2">
+        <v>145</v>
+      </c>
+      <c r="B239" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" s="2">
+        <v>134</v>
+      </c>
+      <c r="B240" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" s="2">
+        <v>140</v>
+      </c>
+      <c r="B241" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" s="2">
+        <v>128</v>
+      </c>
+      <c r="B242" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" s="2">
+        <v>121</v>
+      </c>
+      <c r="B243" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" s="2">
+        <v>157</v>
+      </c>
+      <c r="B244" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" s="2">
+        <v>148</v>
+      </c>
+      <c r="B245" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" s="2">
+        <v>134</v>
+      </c>
+      <c r="B246" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" s="2">
+        <v>128</v>
+      </c>
+      <c r="B247" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" s="2">
+        <v>148</v>
+      </c>
+      <c r="B248" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" s="2">
+        <v>129</v>
+      </c>
+      <c r="B249" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" s="2">
+        <v>131</v>
+      </c>
+      <c r="B250" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" s="2">
+        <v>155</v>
+      </c>
+      <c r="B251" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" s="2">
+        <v>143</v>
+      </c>
+      <c r="B252" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" s="2">
+        <v>166</v>
+      </c>
+      <c r="B253" s="2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" s="2">
+        <v>171</v>
+      </c>
+      <c r="B254" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" s="2">
+        <v>138</v>
+      </c>
+      <c r="B255" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" s="2">
+        <v>168</v>
+      </c>
+      <c r="B256" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" s="2">
+        <v>122</v>
+      </c>
+      <c r="B257" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" s="2">
+        <v>137</v>
+      </c>
+      <c r="B258" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" s="2">
+        <v>139</v>
+      </c>
+      <c r="B259" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" s="2">
+        <v>159</v>
+      </c>
+      <c r="B260" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" s="2">
+        <v>151</v>
+      </c>
+      <c r="B261" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" s="2">
+        <v>159</v>
+      </c>
+      <c r="B262" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" s="2">
+        <v>125</v>
+      </c>
+      <c r="B263" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" s="2">
+        <v>147</v>
+      </c>
+      <c r="B264" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" s="2">
+        <v>164</v>
+      </c>
+      <c r="B265" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" s="2">
+        <v>174</v>
+      </c>
+      <c r="B266" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" s="2">
+        <v>177</v>
+      </c>
+      <c r="B267" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" s="2">
+        <v>171</v>
+      </c>
+      <c r="B268" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" s="2">
+        <v>134</v>
+      </c>
+      <c r="B269" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" s="2">
+        <v>170</v>
+      </c>
+      <c r="B270" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" s="2">
+        <v>163</v>
+      </c>
+      <c r="B271" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" s="2">
+        <v>157</v>
+      </c>
+      <c r="B272" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" s="2">
+        <v>164</v>
+      </c>
+      <c r="B273" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" s="2">
+        <v>141</v>
+      </c>
+      <c r="B274" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" s="2">
+        <v>126</v>
+      </c>
+      <c r="B275" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" s="2">
+        <v>171</v>
+      </c>
+      <c r="B276" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" s="2">
+        <v>145</v>
+      </c>
+      <c r="B277" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" s="2">
+        <v>125</v>
+      </c>
+      <c r="B278" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" s="2">
+        <v>161</v>
+      </c>
+      <c r="B279" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" s="2">
+        <v>155</v>
+      </c>
+      <c r="B280" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" s="2">
+        <v>162</v>
+      </c>
+      <c r="B281" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" s="2">
+        <v>172</v>
+      </c>
+      <c r="B282" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" s="2">
+        <v>152</v>
+      </c>
+      <c r="B283" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" s="2">
+        <v>164</v>
+      </c>
+      <c r="B284" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" s="2">
+        <v>141</v>
+      </c>
+      <c r="B285" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" s="2">
+        <v>160</v>
+      </c>
+      <c r="B286" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" s="2">
+        <v>117</v>
+      </c>
+      <c r="B287" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" s="2">
+        <v>169</v>
+      </c>
+      <c r="B288" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" s="2">
+        <v>135</v>
+      </c>
+      <c r="B289" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" s="2">
+        <v>159</v>
+      </c>
+      <c r="B290" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" s="2">
+        <v>154</v>
+      </c>
+      <c r="B291" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" s="2">
+        <v>182</v>
+      </c>
+      <c r="B292" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" s="2">
+        <v>144</v>
+      </c>
+      <c r="B293" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" s="2">
+        <v>162</v>
+      </c>
+      <c r="B294" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" s="2">
+        <v>128</v>
+      </c>
+      <c r="B295" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" s="2">
+        <v>169</v>
+      </c>
+      <c r="B296" s="2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" s="2">
+        <v>168</v>
+      </c>
+      <c r="B297" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" s="2">
+        <v>172</v>
+      </c>
+      <c r="B298" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" s="2">
+        <v>166</v>
+      </c>
+      <c r="B299" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" s="2">
+        <v>164</v>
+      </c>
+      <c r="B300" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" s="2">
+        <v>132</v>
+      </c>
+      <c r="B301" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" s="2">
+        <v>182</v>
+      </c>
+      <c r="B302" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" s="2">
+        <v>98</v>
+      </c>
+      <c r="B303" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" s="2">
+        <v>87</v>
+      </c>
+      <c r="B304" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" s="2">
+        <v>90</v>
+      </c>
+      <c r="B305" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" s="2">
+        <v>92</v>
+      </c>
+      <c r="B306" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" s="2">
+        <v>92</v>
+      </c>
+      <c r="B307" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" s="2">
+        <v>111</v>
+      </c>
+      <c r="B308" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" s="2">
+        <v>94</v>
+      </c>
+      <c r="B309" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" s="2">
+        <v>92</v>
+      </c>
+      <c r="B310" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" s="2">
+        <v>132</v>
+      </c>
+      <c r="B311" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" s="2">
+        <v>112</v>
+      </c>
+      <c r="B312" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" s="2">
+        <v>107</v>
+      </c>
+      <c r="B313" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" s="2">
+        <v>107</v>
+      </c>
+      <c r="B314" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" s="2">
+        <v>99</v>
+      </c>
+      <c r="B315" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" s="2">
+        <v>90</v>
+      </c>
+      <c r="B316" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" s="2">
+        <v>100</v>
+      </c>
+      <c r="B317" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" s="2">
+        <v>102</v>
+      </c>
+      <c r="B318" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" s="2">
+        <v>94</v>
+      </c>
+      <c r="B319" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" s="2">
+        <v>96</v>
+      </c>
+      <c r="B320" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" s="2">
+        <v>106</v>
+      </c>
+      <c r="B321" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" s="2">
+        <v>104</v>
+      </c>
+      <c r="B322" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" s="2">
+        <v>90</v>
+      </c>
+      <c r="B323" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324" s="2">
+        <v>91</v>
+      </c>
+      <c r="B324" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325" s="2">
+        <v>109</v>
+      </c>
+      <c r="B325" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" s="2">
+        <v>118</v>
+      </c>
+      <c r="B326" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" s="2">
+        <v>103</v>
+      </c>
+      <c r="B327" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" s="2">
+        <v>98</v>
+      </c>
+      <c r="B328" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" s="2">
+        <v>116</v>
+      </c>
+      <c r="B329" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" s="2">
+        <v>87</v>
+      </c>
+      <c r="B330" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" s="2">
+        <v>87</v>
+      </c>
+      <c r="B331" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" s="2">
+        <v>85</v>
+      </c>
+      <c r="B332" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" s="2">
+        <v>91</v>
+      </c>
+      <c r="B333" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" s="2">
+        <v>85</v>
+      </c>
+      <c r="B334" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" s="2">
+        <v>91</v>
+      </c>
+      <c r="B335" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" s="2">
+        <v>90</v>
+      </c>
+      <c r="B336" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" s="2">
+        <v>116</v>
+      </c>
+      <c r="B337" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" s="2">
+        <v>102</v>
+      </c>
+      <c r="B338" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" s="2">
+        <v>96</v>
+      </c>
+      <c r="B339" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" s="2">
+        <v>85</v>
+      </c>
+      <c r="B340" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" s="2">
+        <v>100</v>
+      </c>
+      <c r="B341" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" s="2">
+        <v>91</v>
+      </c>
+      <c r="B342" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" s="2">
+        <v>99</v>
+      </c>
+      <c r="B343" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" s="2">
+        <v>85</v>
+      </c>
+      <c r="B344" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" s="2">
+        <v>99</v>
+      </c>
+      <c r="B345" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" s="2">
+        <v>138</v>
+      </c>
+      <c r="B346" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347" s="2">
+        <v>137</v>
+      </c>
+      <c r="B347" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348" s="2">
+        <v>121</v>
+      </c>
+      <c r="B348" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" s="2">
+        <v>109</v>
+      </c>
+      <c r="B349" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" s="2">
+        <v>110</v>
+      </c>
+      <c r="B350" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" s="2">
+        <v>123</v>
+      </c>
+      <c r="B351" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" s="2">
+        <v>146</v>
+      </c>
+      <c r="B352" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" s="2">
+        <v>140</v>
+      </c>
+      <c r="B353" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" s="2">
+        <v>166</v>
+      </c>
+      <c r="B354" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" s="2">
+        <v>145</v>
+      </c>
+      <c r="B355" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" s="2">
+        <v>169</v>
+      </c>
+      <c r="B356" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" s="2">
+        <v>157</v>
+      </c>
+      <c r="B357" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" s="2">
+        <v>167</v>
+      </c>
+      <c r="B358" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" s="2">
+        <v>132</v>
+      </c>
+      <c r="B359" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" s="2">
+        <v>151</v>
+      </c>
+      <c r="B360" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" s="2">
+        <v>158</v>
+      </c>
+      <c r="B361" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" s="2">
+        <v>165</v>
+      </c>
+      <c r="B362" s="2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" s="2">
+        <v>148</v>
+      </c>
+      <c r="B363" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" s="2">
+        <v>158</v>
+      </c>
+      <c r="B364" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" s="2">
+        <v>118</v>
+      </c>
+      <c r="B365" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" s="2">
+        <v>138</v>
+      </c>
+      <c r="B366" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" s="2">
+        <v>128</v>
+      </c>
+      <c r="B367" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" s="2">
+        <v>161</v>
+      </c>
+      <c r="B368" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" s="2">
+        <v>145</v>
+      </c>
+      <c r="B369" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" s="2">
+        <v>114</v>
+      </c>
+      <c r="B370" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" s="2">
+        <v>112</v>
+      </c>
+      <c r="B371" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" s="2">
+        <v>169</v>
+      </c>
+      <c r="B372" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" s="2">
+        <v>151</v>
+      </c>
+      <c r="B373" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" s="2">
+        <v>123</v>
+      </c>
+      <c r="B374" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" s="2">
+        <v>139</v>
+      </c>
+      <c r="B375" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" s="2">
+        <v>166</v>
+      </c>
+      <c r="B376" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" s="2">
+        <v>125</v>
+      </c>
+      <c r="B377" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" s="2">
+        <v>168</v>
+      </c>
+      <c r="B378" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" s="2">
+        <v>151</v>
+      </c>
+      <c r="B379" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" s="2">
+        <v>172</v>
+      </c>
+      <c r="B380" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" s="2">
+        <v>135</v>
+      </c>
+      <c r="B381" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" s="2">
+        <v>146</v>
+      </c>
+      <c r="B382" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" s="2">
+        <v>128</v>
+      </c>
+      <c r="B383" s="2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" s="2">
+        <v>175</v>
+      </c>
+      <c r="B384" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" s="2">
+        <v>110</v>
+      </c>
+      <c r="B385" s="2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" s="2">
+        <v>106</v>
+      </c>
+      <c r="B386" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" s="2">
+        <v>156</v>
+      </c>
+      <c r="B387" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" s="2">
+        <v>172</v>
+      </c>
+      <c r="B388" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" s="2">
+        <v>153</v>
+      </c>
+      <c r="B389" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" s="2">
+        <v>157</v>
+      </c>
+      <c r="B390" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" s="2">
+        <v>129</v>
+      </c>
+      <c r="B391" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392" s="2">
+        <v>187</v>
+      </c>
+      <c r="B392" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" s="2">
+        <v>161</v>
+      </c>
+      <c r="B393" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" s="2">
+        <v>165</v>
+      </c>
+      <c r="B394" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" s="2">
+        <v>149</v>
+      </c>
+      <c r="B395" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396" s="2">
+        <v>165</v>
+      </c>
+      <c r="B396" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" s="2">
+        <v>126</v>
+      </c>
+      <c r="B397" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" s="2">
+        <v>158</v>
+      </c>
+      <c r="B398" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" s="2">
+        <v>156</v>
+      </c>
+      <c r="B399" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" s="2">
+        <v>159</v>
+      </c>
+      <c r="B400" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" s="2">
+        <v>148</v>
+      </c>
+      <c r="B401" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" s="2">
+        <v>132</v>
+      </c>
+      <c r="B402" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" s="2">
+        <v>144</v>
+      </c>
+      <c r="B403" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" s="2">
+        <v>169</v>
+      </c>
+      <c r="B404" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" s="2">
+        <v>154</v>
+      </c>
+      <c r="B405" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" s="2">
+        <v>102</v>
+      </c>
+      <c r="B406" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" s="2">
+        <v>140</v>
+      </c>
+      <c r="B407" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" s="2">
+        <v>158</v>
+      </c>
+      <c r="B408" s="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" s="2">
+        <v>176</v>
+      </c>
+      <c r="B409" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" s="2">
+        <v>178</v>
+      </c>
+      <c r="B410" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" s="2">
+        <v>159</v>
+      </c>
+      <c r="B411" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" s="2">
+        <v>168</v>
+      </c>
+      <c r="B412" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" s="2">
+        <v>153</v>
+      </c>
+      <c r="B413" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" s="2">
+        <v>164</v>
+      </c>
+      <c r="B414" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" s="2">
+        <v>123</v>
+      </c>
+      <c r="B415" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" s="2">
+        <v>181</v>
+      </c>
+      <c r="B416" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" s="2">
+        <v>116</v>
+      </c>
+      <c r="B417" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" s="2">
+        <v>140</v>
+      </c>
+      <c r="B418" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" s="2">
+        <v>150</v>
+      </c>
+      <c r="B419" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420" s="2">
+        <v>164</v>
+      </c>
+      <c r="B420" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" s="2">
+        <v>153</v>
+      </c>
+      <c r="B421" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422" s="2">
+        <v>146</v>
+      </c>
+      <c r="B422" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423" s="2">
+        <v>164</v>
+      </c>
+      <c r="B423" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424" s="2">
+        <v>171</v>
+      </c>
+      <c r="B424" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425" s="2">
+        <v>131</v>
+      </c>
+      <c r="B425" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426" s="2">
+        <v>127</v>
+      </c>
+      <c r="B426" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427" s="2">
+        <v>113</v>
+      </c>
+      <c r="B427" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428" s="2">
+        <v>91</v>
+      </c>
+      <c r="B428" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429" s="2">
+        <v>93</v>
+      </c>
+      <c r="B429" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430" s="2">
+        <v>105</v>
+      </c>
+      <c r="B430" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431" s="2">
+        <v>119</v>
+      </c>
+      <c r="B431" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432" s="2">
+        <v>131</v>
+      </c>
+      <c r="B432" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433" s="2">
+        <v>102</v>
+      </c>
+      <c r="B433" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434" s="2">
+        <v>139</v>
+      </c>
+      <c r="B434" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435" s="2">
+        <v>123</v>
+      </c>
+      <c r="B435" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436" s="2">
+        <v>119</v>
+      </c>
+      <c r="B436" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437" s="2">
+        <v>99</v>
+      </c>
+      <c r="B437" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438" s="2">
+        <v>109</v>
+      </c>
+      <c r="B438" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439" s="2">
+        <v>91</v>
+      </c>
+      <c r="B439" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440" s="2">
+        <v>96</v>
+      </c>
+      <c r="B440" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441" s="2">
+        <v>102</v>
+      </c>
+      <c r="B441" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442" s="2">
+        <v>128</v>
+      </c>
+      <c r="B442" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443" s="2">
+        <v>96</v>
+      </c>
+      <c r="B443" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444" s="2">
+        <v>93</v>
+      </c>
+      <c r="B444" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445" s="2">
+        <v>95</v>
+      </c>
+      <c r="B445" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446" s="2">
+        <v>118</v>
+      </c>
+      <c r="B446" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447" s="2">
+        <v>108</v>
+      </c>
+      <c r="B447" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448" s="2">
+        <v>99</v>
+      </c>
+      <c r="B448" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449" s="2">
+        <v>123</v>
+      </c>
+      <c r="B449" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450" s="2">
+        <v>100</v>
+      </c>
+      <c r="B450" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451" s="2">
+        <v>132</v>
+      </c>
+      <c r="B451" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452" s="2">
+        <v>128</v>
+      </c>
+      <c r="B452" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453" s="2">
+        <v>143</v>
+      </c>
+      <c r="B453" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454" s="2">
+        <v>127</v>
+      </c>
+      <c r="B454" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455" s="2">
+        <v>110</v>
+      </c>
+      <c r="B455" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456" s="2">
+        <v>127</v>
+      </c>
+      <c r="B456" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A465" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A466" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A467" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A468" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A469" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A470" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A471" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A472" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A473" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A474" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A475" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A476" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A477" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A478" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A479" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A480" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A481" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A482" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A483" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A484" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A485" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A486" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A487" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A488" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A489" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A490" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A491" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A492" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A493" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A494" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A495" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A496" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A497" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A498" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A499" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A500" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A501" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A502" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A503" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A504" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A505" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A506" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A507" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A508" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A509" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A510" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A511" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A512" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A513" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A514" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A515" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A516" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A517" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A518" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A519" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A520" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A521" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A522" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A523" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A524" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A525" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A526" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A527" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A528" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A529" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A530" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A531" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A532" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A533" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A534" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A535" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A536" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A537" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A538" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A539" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A540" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A541" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A542" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A543" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A544" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A545" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A546" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A547" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A548" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A549" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A550" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A551" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A552" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A553" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A554" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A555" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A556" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A557" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A558" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A559" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A560" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A561" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A562" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A563" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A564" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A565" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A566" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A567" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A568" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A569" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A570" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A571" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A572" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A573" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A574" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A575" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A576" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A577" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A578" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A579" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A580" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A581" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A582" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A583" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A584" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A585" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A586" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A587" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A588" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A589" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A590" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A591" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A592" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A593" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A594" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A595" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A596" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A597" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A598" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A599" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A600" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A601" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A602" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A603" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A604" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A605" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A606" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A607" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A608" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A609" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A610" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A611" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A612" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A613" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A614" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A615" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A616" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A617" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A618" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A619" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A620" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A621" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A622" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A623" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A624" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A625" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A626" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A627" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A628" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A629" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A630" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A631" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A632" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A633" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A634" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A635" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A636" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A637" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A638" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A639" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A640" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A641" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A642" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A643" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A644" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A645" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A646" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A647" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A648" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A649" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A650" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A651" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A652" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A653" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A654" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A655" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A656" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A657" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A658" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A659" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A660" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A661" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A662" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A663" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A664" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A665" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A666" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A667" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A668" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A669" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A670" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A671" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A672" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A673" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A674" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A675" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A676" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A677" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A678" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A679" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A680" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A681" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A682" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A683" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A684" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A685" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A686" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A687" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A688" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A689" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A690" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A691" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A692" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A693" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A694" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A695" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A696" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A697" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A698" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A699" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A700" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A701" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A702" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A703" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A704" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A705" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A706" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A707" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A708" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A709" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A710" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A711" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A712" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A713" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A714" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A715" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A716" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A717" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A718" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A719" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A720" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A721" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A722" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A723" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A724" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A725" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A726" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A727" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A728" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A729" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A730" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A731" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A732" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A733" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A734" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A735" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A736" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A737" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A738" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A739" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A740" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A741" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A742" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A743" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A744" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A745" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A746" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A747" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A748" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A749" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A750" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A751" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A752" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A753" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A754" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A755" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A756" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A757" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A758" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A759" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A760" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A761" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A762" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A763" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A764" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A765" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A766" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A767" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A768" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A769" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A770" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A771" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A772" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A773" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A774" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A775" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A776" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A777" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A778" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A779" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A780" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A781" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A782" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A783" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A784" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A785" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A786" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A787" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A788" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A789" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A790" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A791" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A792" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A793" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A794" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A795" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A796" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A797" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A798" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A799" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A800" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A801" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A802" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A803" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A804" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A805" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A806" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A807" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A808" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A809" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A810" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A811" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A812" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A813" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A814" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A815" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A816" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A817" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A818" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A819" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A820" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A821" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A822" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A823" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A824" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A825" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A826" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A827" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A828" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A829" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A830" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A831" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A832" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A833" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A834" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A835" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A836" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A837" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A838" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A839" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A840" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A841" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A842" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A843" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A844" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A845" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A846" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A847" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A848" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A849" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A850" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A851" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A852" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A853" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A854" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A855" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A856" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A857" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A858" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A859" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A860" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A861" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A862" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A863" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A864" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A865" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A866" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A867" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A868" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A869" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A870" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A871" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A872" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A873" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A874" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A875" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A876" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A877" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A878" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A879" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A880" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A881" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A882" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A883" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A884" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A885" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A886" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A887" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A888" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A889" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A890" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A891" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A892" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A893" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A894" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A895" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A896" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A897" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A898" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A899" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A900" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A901" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A902" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A903" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A904" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A905" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A906" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A907" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A908" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A909" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A910" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A911" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A912" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A913" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A914" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A915" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A916" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A917" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A918" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A919" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A920" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A921" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A922" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A923" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A924" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A925" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A926" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A927" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A928" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A929" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A930" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A931" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A932" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A933" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A934" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A935" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A936" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A937" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A938" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A939" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A940" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A941" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A942" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A943" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A944" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A945" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A946" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A947" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A948" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A949" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A950" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A951" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A952" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A953" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A954" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A955" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A956" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A957" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A958" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A959" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A960" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A961" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A962" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A963" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A964" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A965" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A966" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A967" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A968" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A969" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A970" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A971" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A972" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A973" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A974" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A975" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A976" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A977" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A978" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A979" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A980" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A981" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A982" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A983" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A984" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A985" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A986" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A987" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A988" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A989" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A990" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A991" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A992" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A993" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A994" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A995" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A996" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A997" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A998" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A999" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1000" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1001" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1002" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1003" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1004" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1005" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1006" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1007" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1008" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1009" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1010" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1011" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1012" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1013" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1014" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1015" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1016" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1017" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1018" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1019" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1020" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1021" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1022" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1023" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1024" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1025" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1026" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1027" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1028" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1029" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1030" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1031" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1032" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1033" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1034" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1035" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1036" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1037" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1038" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1039" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1040" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1041" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1042" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1043" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1044" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1045" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1046" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1047" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1048" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1049" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1050" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1051" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1052" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1053" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1054" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1055" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1056" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1057" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1058" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1059" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1060" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1061" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1062" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1063" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1064" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1065" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1066" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1067" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1068" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1069" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1070" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1071" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1072" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1073" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1074" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1075" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1076" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1077" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1078" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1079" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1080" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1081" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1082" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1083" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1084" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1085" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1086" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1087" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1088" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1089" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1090" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1091" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1092" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1093" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1094" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1095" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1096" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1097" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1098" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1099" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1100" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1101" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1102" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1103" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1104" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1105" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1106" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1107" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1108" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1109" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1110" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1111" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1112" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1113" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1114" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1115" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1116" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1117" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1118" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1119" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1120" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1121" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1122" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1123" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1124" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1125" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1126" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1127" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1128" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1129" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1130" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1131" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1132" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1133" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1134" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1135" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1136" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1137" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1138" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1139" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1140" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1141" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1142" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1143" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1144" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1145" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1146" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1147" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1148" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1149" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1150" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1151" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1152" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1153" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1154" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1155" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1156" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1157" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1158" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1159" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1160" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1161" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1162" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1163" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1164" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1165" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1166" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1167" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1168" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1169" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1170" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1171" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1172" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1173" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1174" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1175" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1176" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1177" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1178" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1179" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1180" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1181" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1182" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1183" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1184" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1185" s="2">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF6E5E2-947D-4213-83B2-6DC9C16D1E1C}">
   <dimension ref="A1:B6900"/>
   <sheetViews>
@@ -61219,4 +70655,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8A7858-706E-41C1-A196-0FA5DED5B4D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/TM-TestResults/ComputeTime TM Algorithms 40000 columns/TopologyComputeSpeed SP with TM.xlsx
+++ b/Results/TM-TestResults/ComputeTime TM Algorithms 40000 columns/TopologyComputeSpeed SP with TM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\neocortexapi\neocortexapi\Results\TM-TestResults\ComputeTime TM Algorithms 40000 columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14C27F8-8ED0-464C-B62F-6715AC3C5FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2168FC02-E758-4FE1-944F-1F442515C870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-10128" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{697608A7-46EB-44DA-9169-295BAC6E2D80}"/>
   </bookViews>
@@ -39,26 +39,27 @@
     <definedName name="_xlchart.v1.24" hidden="1">'Topology Perfoemance 2'!$E$1:$E$1185</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Topology Perfoemance 2'!$F$1:$F$1185</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'Topology Perfoemance 2'!$G$1:$G$1185</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Topology Perfoemance 2'!$A$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Topology Perfoemance 2'!$A$2:$A$1185</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Topology Perfoemance 2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Topology Perfoemance 2'!$L$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Topology Perfoemance 2'!$A$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Topology Perfoemance 2'!$A$2:$A$1185</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Topology Performance'!$D$2:$D$172</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Topology Perfoemance 2'!$B$2:$B$1185</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Topology Perfoemance 2'!$B:$B</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Topology Perfoemance 2'!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Topology Perfoemance 2'!$C$2:$C$1185</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Topology Perfoemance 2'!$D$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Topology Perfoemance 2'!$D$2:$D$1185</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Topology Perfoemance 2'!$E$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Topology Perfoemance 2'!$E$2:$E$1185</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Topology Perfoemance 2'!$F$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Topology Perfoemance 2'!$F:$F</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Topology Perfoemance 2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Topology Perfoemance 2'!$B$2:$B$1185</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Topology Perfoemance 2'!$B:$B</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Topology Perfoemance 2'!$C$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Topology Perfoemance 2'!$C$2:$C$1185</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Topology Perfoemance 2'!$D$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Topology Perfoemance 2'!$D$2:$D$1185</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Topology Perfoemance 2'!$E$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Topology Perfoemance 2'!$E$2:$E$1185</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Topology Perfoemance 2'!$F$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Topology Performance'!$E$2:$E$172</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Topology Perfoemance 2'!$G$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Topology Perfoemance 2'!$G:$G</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">('Topology Perfoemance 2'!$A:$A,'Topology Perfoemance 2'!$A$1)</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Algorithm Performance'!$A$2:$A$2516</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Algorithm Performance'!$B$2:$B$2516</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Topology Perfoemance 2'!$F:$F</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Topology Perfoemance 2'!$G$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Topology Perfoemance 2'!$G:$G</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">('Topology Perfoemance 2'!$A:$A,'Topology Perfoemance 2'!$A$1)</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Algorithm Performance'!$A$2:$A$2516</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Algorithm Performance'!$B$2:$B$2516</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Topology Performance'!$A$2:$A$115</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'Topology Performance'!$B$2:$B$115</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'Topology Performance'!$C$2:$C$115</definedName>
@@ -582,13 +583,159 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.24</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>tm.compute()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t> time as a function of a number of mini-columns</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{02813925-9D94-484E-B68C-3ACEF58A45BF}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D3804A09-826A-4184-BE1C-20B5A7CD7D24}">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2E87DB2D-B7E2-4365-87AD-B1C6C11EB7DC}">
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{254B97FD-DF14-4C01-84D8-247E8AEC6080}">
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D7F628AC-BB46-4FD1-B446-B8B43A534265}">
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{674C6F20-0E8F-445C-A280-0B96C290721E}">
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7C36061D-A922-4FF5-91FE-A2FF430CB386}">
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="inclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.44</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -813,6 +960,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3427,6 +3614,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3717,6 +4419,84 @@
             <a:xfrm>
               <a:off x="10233660" y="2644140"/>
               <a:ext cx="5280660" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-DE" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441007</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541972</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB42FF6-93C3-40F6-BC6F-415ABD3AB8EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10286047" y="6066472"/>
+              <a:ext cx="5282565" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -26641,10 +27421,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5324C0A-4B86-4581-AFE7-D2D4261A0B0A}">
-  <dimension ref="A1:G1185"/>
+  <dimension ref="A1:Q1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26656,7 +27436,7 @@
     <col min="7" max="7" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -26676,7 +27456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>95</v>
       </c>
@@ -26698,8 +27478,26 @@
       <c r="G2" s="2">
         <v>4656</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="L2">
+        <v>2048</v>
+      </c>
+      <c r="M2">
+        <v>4096</v>
+      </c>
+      <c r="N2">
+        <v>8612</v>
+      </c>
+      <c r="O2">
+        <v>16384</v>
+      </c>
+      <c r="P2">
+        <v>40000</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>67</v>
       </c>
@@ -26722,7 +27520,7 @@
         <v>6471</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>111</v>
       </c>
@@ -26745,7 +27543,7 @@
         <v>12777</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>93</v>
       </c>
@@ -26768,7 +27566,7 @@
         <v>14399</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>66</v>
       </c>
@@ -26791,7 +27589,7 @@
         <v>10081</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>103</v>
       </c>
@@ -26814,7 +27612,7 @@
         <v>14076</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>111</v>
       </c>
@@ -26837,7 +27635,7 @@
         <v>14724</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -26860,7 +27658,7 @@
         <v>15069</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>99</v>
       </c>
@@ -26883,7 +27681,7 @@
         <v>9838</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>115</v>
       </c>
@@ -26906,7 +27704,7 @@
         <v>15809</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>143</v>
       </c>
@@ -26929,7 +27727,7 @@
         <v>21332</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>123</v>
       </c>
@@ -26952,7 +27750,7 @@
         <v>17764</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>94</v>
       </c>
@@ -26975,7 +27773,7 @@
         <v>11422</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>94</v>
       </c>
@@ -26998,7 +27796,7 @@
         <v>20269</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>86</v>
       </c>
